--- a/DONE/BRIZUELA, LENNIE.xlsx
+++ b/DONE/BRIZUELA, LENNIE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\DONE 2-2-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
   <si>
     <t>PERIOD</t>
   </si>
@@ -253,6 +253,12 @@
   </si>
   <si>
     <t>2/10,13/2023</t>
+  </si>
+  <si>
+    <t>CTO</t>
+  </si>
+  <si>
+    <t>4/14,17/2023</t>
   </si>
 </sst>
 </file>
@@ -637,6 +643,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -649,20 +664,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1359,7 +1365,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1402,7 +1408,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1466,7 +1472,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1526,7 +1532,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1592,7 +1598,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1655,7 +1661,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1753,7 +1759,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1812,7 +1818,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1877,7 +1883,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1920,7 +1926,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1995,7 +2001,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2181,7 +2187,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2247,7 +2253,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2305,7 +2311,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2371,7 +2377,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2427,7 +2433,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2502,7 +2508,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2545,7 +2551,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2611,7 +2617,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2667,7 +2673,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2765,7 +2771,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2828,7 +2834,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3304,10 +3310,10 @@
   </sheetPr>
   <dimension ref="A2:K137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A72" activePane="bottomLeft"/>
-      <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3337,14 +3343,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3355,14 +3361,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3375,14 +3381,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3408,18 +3416,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5967,17 +5975,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -6012,10 +6020,10 @@
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="5535" topLeftCell="A13" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A9" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6046,14 +6054,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -6067,14 +6075,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6085,17 +6093,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="str">
+      <c r="F4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
-        <v/>
-      </c>
-      <c r="G4" s="55"/>
+        <v>CTO</v>
+      </c>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6121,18 +6129,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6189,7 +6197,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6437,7 +6445,9 @@
       <c r="K20" s="20"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
+      <c r="A21" s="48" t="s">
+        <v>47</v>
+      </c>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
       <c r="D21" s="39"/>
@@ -6453,8 +6463,12 @@
       <c r="K21" s="20"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C22" s="13"/>
       <c r="D22" s="39"/>
       <c r="E22" s="9"/>
@@ -6463,10 +6477,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H22" s="39"/>
+      <c r="H22" s="39">
+        <v>2</v>
+      </c>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="20"/>
+      <c r="K22" s="20" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>

--- a/DONE/BRIZUELA, LENNIE.xlsx
+++ b/DONE/BRIZUELA, LENNIE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
   <si>
     <t>PERIOD</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>4/14,17/2023</t>
+  </si>
+  <si>
+    <t>4/27, 5/2/2023</t>
   </si>
 </sst>
 </file>
@@ -643,15 +646,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -664,11 +658,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1365,7 +1368,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1408,7 +1411,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1472,7 +1475,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1532,7 +1535,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1598,7 +1601,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1661,7 +1664,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1759,7 +1762,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1818,7 +1821,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1883,7 +1886,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1926,7 +1929,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2001,7 +2004,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2187,7 +2190,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2253,7 +2256,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2311,7 +2314,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2377,7 +2380,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2433,7 +2436,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2508,7 +2511,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2551,7 +2554,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2617,7 +2620,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2673,7 +2676,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2771,7 +2774,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2834,7 +2837,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2930,7 +2933,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3313,7 +3316,7 @@
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A72" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="D87" sqref="D87"/>
+      <selection pane="bottomLeft" activeCell="K80" sqref="K80:K81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3343,14 +3346,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3361,14 +3364,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3381,16 +3384,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3416,18 +3419,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3474,7 +3477,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>55</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3484,7 +3487,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>75.75</v>
+        <v>80</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4925,9 +4928,7 @@
       <c r="A80" s="40">
         <v>44958</v>
       </c>
-      <c r="B80" s="20" t="s">
-        <v>53</v>
-      </c>
+      <c r="B80" s="20"/>
       <c r="C80" s="13">
         <v>1.25</v>
       </c>
@@ -4938,22 +4939,16 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H80" s="39">
-        <v>2</v>
-      </c>
+      <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44986</v>
       </c>
-      <c r="B81" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="B81" s="20"/>
       <c r="C81" s="13">
         <v>1.25</v>
       </c>
@@ -4964,27 +4959,25 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H81" s="39">
-        <v>1</v>
-      </c>
+      <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="49">
-        <v>45002</v>
-      </c>
+      <c r="K81" s="49"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45017</v>
       </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -5975,17 +5968,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -6018,12 +6011,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A9" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A18" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6054,14 +6047,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -6075,14 +6068,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6093,17 +6086,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>CTO</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6129,18 +6122,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6197,7 +6190,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6464,7 +6457,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
-        <v>45017</v>
+        <v>44958</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>53</v>
@@ -6483,12 +6476,16 @@
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
       <c r="K22" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C23" s="13"/>
       <c r="D23" s="39"/>
       <c r="E23" s="9"/>
@@ -6497,14 +6494,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H23" s="39"/>
+      <c r="H23" s="39">
+        <v>1</v>
+      </c>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="49">
+        <v>45002</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C24" s="13"/>
       <c r="D24" s="39"/>
       <c r="E24" s="9"/>
@@ -6513,14 +6518,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H24" s="39"/>
+      <c r="H24" s="39">
+        <v>2</v>
+      </c>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="20"/>
+      <c r="K24" s="20" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C25" s="13"/>
       <c r="D25" s="39"/>
       <c r="E25" s="9"/>
@@ -6529,10 +6542,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H25" s="39"/>
+      <c r="H25" s="39">
+        <v>2</v>
+      </c>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="20"/>
+      <c r="K25" s="20" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
@@ -8199,20 +8216,52 @@
       <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="41"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="43"/>
+      <c r="A130" s="40"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="39"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="43"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="39"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="15"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="40"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="41"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="43"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
